--- a/biology/Botanique/Dipterocarpaceae/Dipterocarpaceae.xlsx
+++ b/biology/Botanique/Dipterocarpaceae/Dipterocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diptérocarpacées (Dipterocarpaceae) sont une famille d'arbres émergents qui regroupe des plantes dicotylédones de l'ordre des Malvales. Ces très grands arbres à feuilles persistantes des régions tropicales poussent principalement dans des forêts humides tropicales, plus particulièrement dans les forêts pluviales des basses terres d'Asie du Sud-Est.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le nom vient du genre type Dipterocarpus composé des mots grecs  δύο / dio, deux, πτερων / pteron, « aile ; plume », et καρπός / karpos, fruit[2], désignant un fruit qui a deux ailes[3].
+Le nom vient du genre type Dipterocarpus composé des mots grecs  δύο / dio, deux, πτερων / pteron, « aile ; plume », et καρπός / karpos, fruit, désignant un fruit qui a deux ailes.
 			Fruit et ses 2 ailes
 			Six fruits de Dipterocarpus
 </t>
@@ -545,12 +559,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diptérocarpacées sont des arbres dits « arbres émergents » qui dominent la canopée à plus de 40 m de hauteur. Ils atteignent parfois 70 m de hauteur.
-Le sol des forêts tropicales étant pauvres en aliments nutritifs, les racines de l'arbre ne s'enfoncent que de 15 à 20 cm de profondeur (alors que dans les forêts tempérées les arbres s'enracinent jusqu'à 1,5 m de profondeur) : c'est pourquoi, pour que l'arbre soit stable et ne tombe pas, il développe des contreforts[4].
+Le sol des forêts tropicales étant pauvres en aliments nutritifs, les racines de l'arbre ne s'enfoncent que de 15 à 20 cm de profondeur (alors que dans les forêts tempérées les arbres s'enracinent jusqu'à 1,5 m de profondeur) : c'est pourquoi, pour que l'arbre soit stable et ne tombe pas, il développe des contreforts.
 Les diptérocarpacées sont souvent caractérisées par un phénomène de « timidité des houppiers » qui fait que les couronnes de ces arbres ne se touchent pas entre elles.
-Parmi les 260 espèces de diptérocarpes au monde, 155 sont natives de l'île de Bornéo en Asie du Sud-Est[5].
+Parmi les 260 espèces de diptérocarpes au monde, 155 sont natives de l'île de Bornéo en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -579,17 +595,53 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1825 par le botaniste germano-hollandais Blume. 
-En classification phylogénétique APG III (2009)[6] cette famille est classée dans l'ordre des Malvales, tandis qu'en classification classique de Cronquist (1981)[7] elle faisait partie des Theales.
-Les genres les plus importants de cette famille sont Shorea (196 espèces), Hopea (104 espèces), Dipterocarpus (70 espèces) et Vatica (65 espèces) [8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette famille a été décrite pour la première fois en 1825 par le botaniste germano-hollandais Blume. 
+En classification phylogénétique APG III (2009) cette famille est classée dans l'ordre des Malvales, tandis qu'en classification classique de Cronquist (1981) elle faisait partie des Theales.
+Les genres les plus importants de cette famille sont Shorea (196 espèces), Hopea (104 espèces), Dipterocarpus (70 espèces) et Vatica (65 espèces) .
 Selon quelques auteurs elle comprend seulement des plantes asiatiques d'Indonésie et Malaisie[réf. nécessaire].
 Certains auteurs[réf. nécessaire] incluent aussi les plantes acceptées comme la famille Monotaceae par d'autres auteurs. Dans ce cas les Diptérocarpacées comprennent deux sous-familles additionnelles :
 Marquesia, Monotes en Afrique et Pseudomonotes en Amérique du Sud;
-Pakaraimaea en Guyane.
-Liste des genres
-Selon GRIN            (5 mars 2017)[1] :
+Pakaraimaea en Guyane.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dipterocarpaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipterocarpaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (5 mars 2017) :
 Anisoptera Korth.
 Cotylelobium Pierre
 Dipterocarpus C. F. Gaertn.
@@ -600,7 +652,7 @@
 Shorea Roxb. ex C. F. Gaertn.
 Vateria L.
 Vatica L.
-Selon Tropicos                                           (5 mars 2017)[9] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 mars 2017) (Attention liste brute contenant possiblement des synonymes) :
 Anisoptera Korth.
 Antherotriche Turcz.
 Anthoshorea Pierre
